--- a/toolkit/shopbook.xlsx
+++ b/toolkit/shopbook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>shop</t>
   </si>
@@ -28,6 +28,9 @@
     <t>book_name</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>shopbook_url</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>Python参考手册(第4版·修订版)</t>
+  </si>
+  <si>
+    <t>编程语言</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-9986777119.15.79c15d8JGRW05&amp;id=539853070197&amp;rn=934e2d1ecc4ab188c0bb95e26877b606&amp;abbucket=4</t>
@@ -1020,22 +1026,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.4" customWidth="1"/>
     <col min="2" max="2" width="22.7" customWidth="1"/>
     <col min="3" max="3" width="16.3" customWidth="1"/>
-    <col min="4" max="4" width="29.7" customWidth="1"/>
-    <col min="5" max="5" width="17.1" customWidth="1"/>
+    <col min="4" max="5" width="29.7" customWidth="1"/>
+    <col min="6" max="6" width="17.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,107 +1057,128 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
